--- a/example/param/plot_legend.xlsx
+++ b/example/param/plot_legend.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialinechardelin/current/Zabargad/3_4_deformation/4_analysis/param/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D4FAA0-786D-5B4E-B27E-6CAED04595F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2140" windowWidth="28800" windowHeight="15000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="plot" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="plot" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -28,195 +23,213 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="59">
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>yy</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>facecolor</t>
-  </si>
-  <si>
-    <t>edgecolor</t>
-  </si>
-  <si>
-    <t>marker</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>cmap</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>proj</t>
-  </si>
-  <si>
-    <t>annotate</t>
-  </si>
-  <si>
-    <t>xlim</t>
-  </si>
-  <si>
-    <t>ylim</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>sortvalues</t>
-  </si>
-  <si>
-    <t>inner</t>
-  </si>
-  <si>
-    <t>textbox</t>
-  </si>
-  <si>
-    <t>shareX</t>
-  </si>
-  <si>
-    <t>shareY</t>
-  </si>
-  <si>
-    <t>labels</t>
-  </si>
-  <si>
-    <t>auto_sscat</t>
-  </si>
-  <si>
-    <t>auto_subcat</t>
-  </si>
-  <si>
-    <t>list_pondEGD_pondGOS_pondaspectRatio</t>
-  </si>
-  <si>
-    <t>list_pondSF</t>
-  </si>
-  <si>
-    <t>resume</t>
-  </si>
-  <si>
-    <t>sscat</t>
-  </si>
-  <si>
-    <t>subcat</t>
-  </si>
-  <si>
-    <t>values_sscat</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>XY</t>
-  </si>
-  <si>
-    <t>auto_cat</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>sort_sort</t>
-  </si>
-  <si>
-    <t>EGDmixte_all</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>list_cat_85ZA1_85ZA7b_85ZA11_85ZA22A_85ZA45-new</t>
-  </si>
-  <si>
-    <t>no_cat</t>
-  </si>
-  <si>
-    <t>list_sscat_all_Olivine_Orthopyroxene_Clinopyroxene_Plagioclase</t>
-  </si>
-  <si>
-    <t>list_subcat_all_porph_rex</t>
-  </si>
-  <si>
-    <t>pondEGD</t>
-  </si>
-  <si>
-    <t>auto_col</t>
-  </si>
-  <si>
-    <t>auto_except1_except2</t>
-  </si>
-  <si>
-    <t>auto_col (sur la colonne triée préalablement)</t>
-  </si>
-  <si>
-    <t>list_col1_col2</t>
-  </si>
-  <si>
-    <t>col</t>
-  </si>
-  <si>
-    <t>minmax_col_min_max</t>
-  </si>
-  <si>
-    <t>values_col</t>
-  </si>
-  <si>
-    <t>list_col_value1_value2_</t>
-  </si>
-  <si>
-    <t>min_max</t>
-  </si>
-  <si>
-    <t>col1_col2_</t>
-  </si>
-  <si>
-    <t>value1_value2_</t>
-  </si>
-  <si>
-    <t>value_col</t>
-  </si>
-  <si>
-    <t>values_col (tri dans le dictionnaire)</t>
-  </si>
-  <si>
-    <t>iter</t>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facecolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edgecolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annotate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xlim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ylim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sortvalues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shareX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shareY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto_sscat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto_subcat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_pondEGD_pondGOS_pondaspectRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_pondSF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sscat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subcat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">values_sscat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort_sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGDmixte_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_cat_85ZA1_85ZA7b_85ZA11_85ZA22A_85ZA45-new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_sscat_all_Olivine_Orthopyroxene_Clinopyroxene_Plagioclase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_subcat_all_porph_rex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pondEGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto_col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto_except1_except2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto_col (sur la colonne triée préalablement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_col1_col2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minmax_col_min_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">values_col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_col_value1_value2_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col1_col2_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value1_value2_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value_col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">values_col (tri dans le dictionnaire)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -228,7 +241,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -236,483 +249,217 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:ALU8"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:Y4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.64453125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="37" customWidth="1"/>
-    <col min="11" max="11" width="37.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="4.83203125" customWidth="1"/>
-    <col min="15" max="15" width="4.33203125" customWidth="1"/>
-    <col min="16" max="16" width="20.83203125" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
-    <col min="18" max="18" width="9.83203125" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="24" width="7.1640625" customWidth="1"/>
-    <col min="25" max="25" width="6.1640625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="40.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="41.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="21" style="0" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="6.77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1009" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1009" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="L2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>35</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -721,10 +468,10 @@
       <c r="R2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="0" t="s">
         <v>38</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -743,53 +490,53 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:1009" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="L3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>40</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -798,10 +545,10 @@
       <c r="R3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="0" t="s">
         <v>38</v>
       </c>
       <c r="U3" s="1" t="s">
@@ -1066,53 +813,53 @@
       <c r="ALT3" s="1"/>
       <c r="ALU3" s="1"/>
     </row>
-    <row r="4" spans="1:1009" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="L4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>40</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -1121,10 +868,10 @@
       <c r="R4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="0" t="s">
         <v>38</v>
       </c>
       <c r="U4" s="1" t="s">
@@ -1389,53 +1136,53 @@
       <c r="ALT4" s="1"/>
       <c r="ALU4" s="1"/>
     </row>
-    <row r="5" spans="1:1009" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="L5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>41</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -1444,10 +1191,10 @@
       <c r="R5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="0" t="s">
         <v>38</v>
       </c>
       <c r="U5" s="1" t="s">
@@ -1466,53 +1213,53 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:1009" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="L6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>41</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -1521,10 +1268,10 @@
       <c r="R6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="0" t="s">
         <v>38</v>
       </c>
       <c r="U6" s="1" t="s">
@@ -1543,53 +1290,53 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:1009" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="G7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="L7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>41</v>
       </c>
       <c r="Q7" s="1" t="s">
@@ -1598,10 +1345,10 @@
       <c r="R7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="0" t="s">
         <v>38</v>
       </c>
       <c r="U7" s="1" t="s">
@@ -1620,53 +1367,53 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1009" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="N8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="N8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>41</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -1675,10 +1422,10 @@
       <c r="R8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="0" t="s">
         <v>38</v>
       </c>
       <c r="U8" s="1" t="s">
@@ -1698,9 +1445,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1708,143 +1456,146 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="117" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:Y4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.64453125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="10" max="10" width="27.83203125" customWidth="1"/>
-    <col min="11" max="11" width="41" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="30.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="45.04"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="L2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>35</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -1853,10 +1604,10 @@
       <c r="R2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="0" t="s">
         <v>38</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -1875,53 +1626,53 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="L3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>40</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -1930,10 +1681,10 @@
       <c r="R3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="0" t="s">
         <v>38</v>
       </c>
       <c r="U3" s="1" t="s">
@@ -1952,53 +1703,53 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="L4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>40</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -2007,10 +1758,10 @@
       <c r="R4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="0" t="s">
         <v>38</v>
       </c>
       <c r="U4" s="1" t="s">
@@ -2029,188 +1780,201 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="N8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="N8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="U8" s="2" t="b">
+      <c r="U8" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V8" s="2" t="b">
+      <c r="V8" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W8" s="2" t="b">
+      <c r="W8" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="X8" s="2" t="b">
+      <c r="X8" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y8" s="2" t="b">
+      <c r="Y8" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="G9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="2" t="b">
+      <c r="L9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="R9" s="2" t="b">
+      <c r="R9" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="S9" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U9" s="2" t="b">
+      <c r="S9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V9" s="2" t="b">
+      <c r="V9" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W9" s="2" t="b">
+      <c r="W9" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X9" s="2" t="b">
+      <c r="X9" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="2" t="b">
+      <c r="Y9" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/example/param/plot_legend.xlsx
+++ b/example/param/plot_legend.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="60">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -164,7 +164,10 @@
     <t xml:space="preserve">auto_except1_except2</t>
   </si>
   <si>
-    <t xml:space="preserve">auto_col (sur la colonne triée préalablement)</t>
+    <t xml:space="preserve">auto_df_col_minSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colors_col_color1_color2_grades</t>
   </si>
   <si>
     <t xml:space="preserve">list_col1_col2</t>
@@ -173,7 +176,7 @@
     <t xml:space="preserve">col</t>
   </si>
   <si>
-    <t xml:space="preserve">minmax_col_min_max</t>
+    <t xml:space="preserve">minmax_col_minSize_minValue_maxValue</t>
   </si>
   <si>
     <t xml:space="preserve">values_col</t>
@@ -310,30 +313,30 @@
       <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.64453125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.2734375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="40.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="41.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="21" style="0" width="7.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="6.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="42.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="42.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="23.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="21" style="0" width="8.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="7.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1462,14 +1465,20 @@
   </sheetPr>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="169" zoomScaleNormal="169" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.64453125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.2734375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="30.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="45.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="46.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="47.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="42.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,43 +1811,46 @@
       <c r="K7" s="0" t="s">
         <v>47</v>
       </c>
+      <c r="M7" s="0" t="s">
+        <v>48</v>
+      </c>
       <c r="P7" s="0" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>34</v>
@@ -1847,19 +1859,19 @@
         <v>34</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U8" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -1884,10 +1896,10 @@
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>5</v>
@@ -1902,10 +1914,10 @@
         <v>33</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>33</v>
@@ -1967,7 +1979,7 @@
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
